--- a/Data/AllaBolagAnalys.xlsx
+++ b/Data/AllaBolagAnalys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlov02\Documents\UiPath\Alla_Bolag_Analys\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE78EF-39DC-4849-A1CC-2FE2B48FA6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C7923-18FF-4660-AEBB-88B4A37AE886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{29188C5F-AFE0-4AC6-9B01-F77C7DD17B73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{29188C5F-AFE0-4AC6-9B01-F77C7DD17B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Företagsnamn</t>
   </si>
@@ -62,85 +62,28 @@
     <t>556968-7477</t>
   </si>
   <si>
-    <t>4 784</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>11/02/2022 12:16:20</t>
-  </si>
-  <si>
     <t>Plåtslagare Lars oskarsson AB</t>
   </si>
   <si>
     <t>559005-6676</t>
   </si>
   <si>
-    <t>5 660</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>11/02/2022 12:16:33</t>
-  </si>
-  <si>
     <t>Boa Plåtslagare AB</t>
   </si>
   <si>
     <t>556905-8810</t>
   </si>
   <si>
-    <t>4 274</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>11/02/2022 12:16:45</t>
-  </si>
-  <si>
     <t>Plåtpartner i Västerås AB</t>
   </si>
   <si>
     <t>556730-2442</t>
   </si>
   <si>
-    <t>10 043</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>11/02/2022 12:16:56</t>
-  </si>
-  <si>
     <t>Micke och Kenneth Plåt-&amp;Ventilationservice AB</t>
   </si>
   <si>
     <t>556699-2367</t>
-  </si>
-  <si>
-    <t>9 946</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11/02/2022 12:17:07</t>
   </si>
 </sst>
 </file>
@@ -513,7 +456,7 @@
     <col min="3" max="3" width="23.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.5">
@@ -543,97 +486,37 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
